--- a/biology/Zoologie/Auroralumina/Auroralumina.xlsx
+++ b/biology/Zoologie/Auroralumina/Auroralumina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auroralumina attenboroughii
-Auroralumina est un genre monotypique fossile identifié dans la faune de l'Édiacarien du site de la forêt de Charnwood datant de 560 Ma, et identifié comme appartenant au groupe-couronne des Cnidaires, plus précisément au groupe-souche des Médusozoaires[1],[2].
+Auroralumina est un genre monotypique fossile identifié dans la faune de l'Édiacarien du site de la forêt de Charnwood datant de 560 Ma, et identifié comme appartenant au groupe-couronne des Cnidaires, plus précisément au groupe-souche des Médusozoaires,.
 Auroralumina attenboroughii en est l'espèce type, nommée d’après le naturaliste anglais David Attenborough, qui est allé à l'école dans le Leicestershire, où le fossile a été trouvé.
 </t>
         </is>
@@ -515,9 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Biologie
-Le fossile, dont le nom rappelle le latin « lanterne de l'aube », a été décrit comme le plus ancien prédateur animal connu, puisque sa structure le place parmi les cnidaires, qui possèdent des cellules urticantes (cnidocytes) sur leurs tentacules. On suppose qu'ils les utilisaient pour attraper de petits animaux planctoniques. Le fossile se compose d'une paire de tubes bifurquants dans lesquels vivaient les animaux. C'est la plus ancienne structure de ce type à être enregistrée. Elle a été datée d'il y a 560 millions d'années d'après les cristaux de zircon contenus dans la roche.
-Phylogénie</t>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fossile, dont le nom rappelle le latin « lanterne de l'aube », a été décrit comme le plus ancien prédateur animal connu, puisque sa structure le place parmi les cnidaires, qui possèdent des cellules urticantes (cnidocytes) sur leurs tentacules. On suppose qu'ils les utilisaient pour attraper de petits animaux planctoniques. Le fossile se compose d'une paire de tubes bifurquants dans lesquels vivaient les animaux. C'est la plus ancienne structure de ce type à être enregistrée. Elle a été datée d'il y a 560 millions d'années d'après les cristaux de zircon contenus dans la roche.
+</t>
         </is>
       </c>
     </row>
